--- a/500all/speech_level/speeches_CHRG-114hhrg97704.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. Good morning. I ask that all of our guests today please take their seats. The subcommittee will come to order. The chair will recognize himself for an opening statement.    Genetically modified organisms, or GMOs, is a term that refers to ingredients sourced from crops that have been genetically engineered to express certain traits or characteristics.    There are real sensitivities around these issues and all issues regarding the food we eat and feed our children and grandchildren. It is our job, as policymakers, particularly as it relates to the public health, to establish a factually and scientifically sound foundation prior to taking any action that would impact consumers and our economy.    This hearing provides a great opportunity to put rhetoric aside and do just that. Genetic engineering in agriculture has occurred for centuries. Ingredients from genetically engineered plants have been a part of the U.S. Food supply for decades.    In fact, as much as 90 percent of our corn, sugar beet, and soybean crops are now genetically engineered and more than 70 percent of processed foods contain ingredients derived from such crops.    The Food and Drug Administration oversees the safety of all food products from plant sources, including those from genetically engineered crops. These products must meet the same safety requirements as foods from traditionally-bred crops. The FDA currently has a consultation in place which developers of the underlying technologies address any outstanding safety or other regulatory issues with the agency prior to marketing their products.    FDA has completed approximately 100 of such consultations. No products have gone to market until FDA's safety-related questions have been resolved. FDA officials have repeatedly stated that the agency has no basis for concluding that bioengineered foods are different from other foods in any meaningful way, and the World Health Organization has confirmed that ``No effects on human health have been shown as a result of consumption of such foods.'' In fact, they can grow faster, resist diseases and drought, cost less, and prove more nutritious. Nonetheless, there have recently been a number of State initiatives calling for the mandatory labeling of food products that contain GMOs.    We will hear today from a number of witnesses who can speak to such actions and the impact they would have. I am concerned that a patchwork of State labeling schemes would be impractical and unworkable. Such a system would create confusion among consumers and result in higher prices and fewer options.    Finally, I want to commend Representative Mike Pompeo and Representative Butterfield for their leadership on these issues and look forward to learning more about their continued efforts to work in a bipartisan manner on H.R. 1599, the Safe and Accurate Food Labeling Act of 2015. All these efforts will continue as the legislative process moves forward. I am encouraged that the revised language circulated in advance of this hearing has been informed by conversations between the sponsors, the committees of jurisdiction, the implementing agencies, and the impact of stakeholders.    I would like to welcome all of our witnesses for being here today. I look forward to your testimony. And I yield the balance of my time to distinguished vice chairman of the full committee, Representative Blackburn of Tennessee.</t>
   </si>
   <si>
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman.    Welcome to all. And the chairman mentioned the food that we eat and that we feed our children and grandchildren. I want to add one category to that, what we feed our pets. And we are concerned about that aspect also.    I do appreciate Mr. Pompeo and the assistance they have given us as we look at pet food labeling. And the chairman also mentioned that we have had these products in the marketplace for decades. I would say we are talking about over 100 years. Go back and look at what farmers did. And they would breed cattle to get the best traits. Look at the work that George Washington Carver did in his 40 years of teaching and research at Tuskegee, looking for ways to improve the soil, looking at different varietals of peanut and sweet potatoes and improving the health of individuals in the south.    Genetically modified foods are components that are indeed with us, and it is because of them that we have greater yields per acre; we have more varieties, and that our farmers markets that I visit every single weekend are full of beautiful products that encourage people to access these fresh foods and bring them into their homes and kitchens.    With that, I thank all for their work. I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Mr. Chairman, I was glad our vice chair of the subcommittee worried about our pets. My problem is I had a dog one time that ate pillows and curtains and everything else. I think he ate everything he could get his mouth on.    Mr. Chairman, I have a statement I would like to put into the record, but I would like to yield my time to Congressman Butterfield.</t>
   </si>
   <si>
@@ -85,27 +76,18 @@
     <t>400616</t>
   </si>
   <si>
-    <t>G. K. Butterfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Butterfield. Thank you very much, Mr. Green and Mr. Pitts. Before beginning, Mr. Chairman, I just want to publicly extend my condolences to the families of the nine victims in Charleston, South Carolina who were horrifically murdered last night while attending a prayer meeting. So thank you, Mr. Chairman, for allowing me to digress for just a moment to offer my sympathies to those families.    Mr. Chairman, I support H.R. 1599. I am the bill's lead democratic co-sponsor. This bill is bipartisan. It proposes a national labeling standard for foods produced with genetically modified ingredients. The alternative is a complex and unworkable patchwork of differing state laws that can only cause confusion and do little to provide greater transparency. Several states have moved forward with proposals that would require foods containing ingredients to be labeled. This is in response to unsubstantiated claims that foods containing genetically modified ingredients are, in some way, dangerous in human consumption. I take exception to these unfair and downright dishonest claims.    Foods containing genetically modified ingredients are safe. The FDA, USDA, National Academy of Sciences, AAAS, the WHO, every major scientific and governmental organization agrees with that statement. Even opponents of genetically modified foods admit genetically modified foods have failed to produce any untoward health effects. But the demonization of genetically modified foods continues despite objective science proving to the contrary.    Those opposed to genetically modified foods simply reject science, and that is tremendously disappointing. And though I stand with science and my belief that these foods are safe, I understand the concerns expressed by the opponents and want to be responsive. That is why I have worked with my friend, Mr. Pompeo, and others in advocating for a Federal framework for labeling and crop commercialization that puts the FDA and USDA, our Nation's foremost food safety authorities, putting them in the driver's seat. 1599 is a balanced approach that reduces confusion by providing consumers with labeling uniformity across state lines that addresses the concerns of those who are opposed to genetically modified foods while not neglecting the fact that our Nation's farmers and manufacturers grow and produce foods that are so far and wide and not just within a state's borders. Without a Federal standard, Mr. Chairman, those farmers and manufacturers will be forced to comply with uneven costly and potentially misleading and onerous state-by-state mandates. Compliance will require new costly supply chain infrastructure that would disrupt the Nation's food supply, cause confusion and uncertainty. 1599 is reasonable. And most importantly, it is workable.    I want to thank the more than 60 bipartisan co-sponsors for joining me and Mr. Pompeo in agreeing that our bill is the best way forward.    I yield the remainder of my time to Mr. Welch of Vermont.</t>
   </si>
   <si>
     <t>412239</t>
   </si>
   <si>
-    <t>Peter Welch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Welch. I thank the gentleman. The issue here is not so much whether GMOs are safe. The issue is whether individual purchasers, consumers, who purchase food have a right to know that GMOs are part of the food they are buying. It is a consumer right-to-know issue. I agree with my colleagues that a national standard would be good, but there is no national standard in this bill. It is a voluntarily labeling, which means there will be no labeling whatsoever.    Many states are reflecting the desires of their consumers to basically know what is in the product they are buying, and the consumer has the right to do that. They just do. And this legislation is ironic in this sense: If GMOs are so safe, and I am not here to challenge that assertion, but if they are so safe, why not label so that folks who are getting what the manufacturers assert is so safe know that their product will be labeled and consumers can then make their own decision. My question really is, if they are so safe, why would anyone be afraid of labeling those products so that consumers would have a right to know?    Now, in Vermont we have our assistant attorney general here, Todd Daloz, who is going to talk about what we have done in Vermont. Three States have passed labeling laws. Several others are considering them. There have been referendums that almost passed in California and it is reflecting this groundswell of desire that consumers have to know what is in the products that they are buying.    Now, I am going to play a little unfair here, Mr. Chairman, because I am here today to give Mr. Pompeo----</t>
   </si>
   <si>
     <t>412431</t>
   </si>
   <si>
-    <t>Mike Pompeo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pompeo. Finally.</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Good morning. We continue our examination of the role biotechnology plays in our Nation's farms and in our food supply. Our food, as we know, is literally our lifeline. It is important for the public to be engaged. It is the job of this subcommittee to establish a record based on the facts and the science so we ultimately pass legislation that is in the best interest of our constituents and our economy.    At the hearing that we held in December of last year and in other venues since then, the FDA has been clear that the premarket consultation process currently in place to review food produced from genetically engineered crops is rigorous and the agency has no basis for questioning its safety. The WHO and every other legitimate health and scientific body that has examined this evidence has echoed the FDA's findings. Nonetheless, there are a number of state-specific labeling requirements in various stages of consideration that are inconsistent, potentially confusing to consumers, would increase food costs that cast out over the safety of biotechnology.    Mr. Pompeo and Butterfield have been working tirelessly on a bipartisan basis in putting together a clear, understandable national framework that maintains FDA'S current review process, codifies Federal labeling standards and related requirements, establishes a certification process that the Department of Agriculture, consistent with current organic program, for the labeling of products as being produced or developed without the use of genetic engineering.    The draft amendment to H.R. 1599 circulated before this hearing is another step in the right direction, and I commend the Ag Committee for working with us to get the bill through the House to ensure consumers will have a clear, concise, and consistent system to assist in their food choices. I yield the balance of my time to Mr. Pompeo.</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Today we will hear a range of views on why there should or should not be mandatory labeling of foods from genetically engineered or GE plants, and on why States should and should not be allowed to impose such labeling requirements.    I have been long been a proponent of strong food labeling requirements. I was an original co-sponsor of the Nutrition Labeling and Education Act of 1990. I was a strong advocate for the ACA provision requiring nutrition labeling on menus and sponsored legislation last year, which I will be reintroducing to update and strengthen current FDA nutrition labeling requirements. And I have strongly opposed any attempts to weaken existing labeling requirements, such as the Commonsense Nutrition Labeling bill, which I believe would impede consumer access to nutritional information on menus and restaurants, pizza parlors, grocery stores, and convenience stores.    So I am inclined to be skeptical of legislation aimed at limiting, rather than enhancing, information on a food label. At the same time, I recognize that the differences between nutrition labeling and GE labeling may warrant different regulatory approaches. Nutrition labeling provides information and enables consumers to make health-related choices on how they eat. There is no question in my mind the Federal government should food companies to put that information on food labels.    GE labeling is about the breeding techniques used to make agricultural crops. Food from such crops do not share any particular nutritional or health-related properties. A GE label provides no information on the consumption of the food or whether--on the composition of the food on whether it is good for bad for you, on whether it tastes good or bad, or on whether it is safe or unsafe. There is no scientific evidence that GE foods pose safety issues any different from non-GE foods.    I have to admit, when I hear critics argue that GE foods are dangerous, I feel the same way I do when I hear people deny climate change, argue against vaccinating children, or say they aren't scientists when asked if they believe in evolution. So from a science or health perspective, there doesn't seem to be a compelling government interest in forcing a food company to label a food that is made with or without genetic engineering.    That being said, if the State of Vermont wants to require food companies to put such information on their food labels, is there a compelling Federal Government interest in prohibiting them from doing so? Perhaps not. But I do think there is a compelling Federal interest in preventing any labeling that is false or misleading consistent with current law.    If mandatory GE labeling were inherently misleading, for example, because it implied that GE food was somehow inferior to normal food, that would seem to be a compelling reason to prohibit it. I am so far not convinced that the requirement imposed by Vermont would be inherently misleading. I would be interested in hearing from our panelists today on that question.    Now, there may be a compelling Federal interest from preventing companies from having to face 50 different food labeling regimes. In fact, it was a fear of such unworkable set of State food labeling requirements that led food companies and restaurants ultimately to support Federal requirements for nutrition labeling. To avoid a 50-state problem, there are two obvious solutions: We can band right-to-know labeling requirements outright, or we can replace them with a uniform Federal mandatory GE labeling requirement, but I personally think a voluntary labeling approach is more appropriate for GE labeling. I also don't believe in preempting State law without good reason.    So I think this is an important hearing, Mr. Chairman. There are a number of competing issues to weigh before moving forward on legislation, and I hope we will take our time in considering them. I yield back.</t>
   </si>
   <si>
@@ -151,45 +127,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Blasgen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blasgen. Thank you very much, and good morning, Chairman Pitts and Ranking Member Green, and members of the subcommittee. My name is Rick Blasgen. I am president and chief executive officer of the Council of Supply Chain Management Professionals representing well over 8,500 members globally. Prior to joining CSCMP I was senior vice president for Integrated Logistics and ConAgra Foods, and in similar positions at Kraft Foods as well as Nabisco. I have been president and CEO of CSCMP since 2005. In this capacity, I serve as the primary issue expert relating to logistics and supply chain management.    I want to thank you very much for inviting me to explain the importance of national labeling frameworks. I will focus my remarks on the costs associated with Vermont's labeling mandate, a law that goes into effect on July 1, 2016, and imposes incalculable burdens on our Nation's largest manufacturing sector.    Grocery manufacturing is a high-volume, low-margin business, and any increase in cost, even by a matter of cents, can substantially affect a manufacturer and its supply chain. The primary cost centers in the supply chain are the cost of source materials, capital, operations, labor, storage, distribution centers, transportation, maintenance, and, of course, fuel. The supply chain for a processed food begins with the raw commodity. The supplier sells the raw food to a manufacturer, and the manufacturer stores the food at the plant until it is processed into its ingredient form. That ingredient may be the final product, such as in cooking oils, or it may be used in products containing multiple ingredients.    Finished goods are sent to a manufacturer's distribution center where they are stored until ready for transport into the customer's distribution center. The customer may be a national or regional chain or a regional distributor that sells to other retail outlets. The customer stores the finished goods at its center and distributes them to its retail outlets where they are sold finally to consumers. A manufacturer typically plans each stage of the supply chain to ensure it is handled as efficiently as possible. The core unit in a grocery manufacturer supply chain is the stock keeping unit, or SKU. This SKU is simply a unique identifying number that applies to each distinctly packaged and marketed product.    A single national SKU facilitates efficient storage, distribution, and inventory tracking. Manufacturers do not create different SKUs for different states. Vermont's legal time clock is ticking, and manufacturers will have to determine which products contain ingredients likely derived from GE crops. Companies will navigate Vermont's exemptions, such as foods bearing USDA-approved labels. Restaurant food is also exempted, and this could impact segregation and transportation costs. Each exemption provides more complexity to the supply chain, less clarity for consumers, and more red tape for manufacturers.    Manufacturers will have to make new labels with state-approved text and design. Labeling materials are one of the largest expenses affecting a manufacturer's bottom line. And the inventory left over when a manufacturer implements a labeling change must be discarded, which is a waste not only of materials, but the money the manufacturer may have spent in anticipation of using that stock. Waste and recycling charges will also apply.    At the processing facility, let's assume it takes 5 minutes to stop and start to accommodate the new package. This reduces production time as the companies pay for the lost time and labor, energy, and capital costs of depreciation.    Now assume a single plant with 10 lines running simultaneously, each with one Vermont run per payday, over 300 days in the year. That makes 500 lost hours per year, or about 3 weeks of idle time. These assumptions are meant for illustration with respect to only one single plant. Large manufacturers may have dozens of plants, and each plant may have dozens of production lines. The Vermont products would then need to be segregated from the other products and be placed on their own pallets. Pallets take up space wherever they go. They will take up space in warehouses, on trucks, and at customer distribution centers. These Vermont pallets must have sufficient space to reduce the risk of product being shipped to the wrong state; namely, product not intended for Vermont ending up on shelves there.    Manufacturers would have to renovate or purchase new storage space or real estate. Additional pallets means additional trucks will be needed to transport products to customers. The trucks are capital investments with ongoing maintenance needs and associated labor costs. And this is just on the manufacturing end of the supply chain. The products intended for Vermont must then go through distributors and/or retailer supply chain systems who purchase the product and thus, then, own it exponentially increasing the costs to service Vermont and also increasing the chance for error.    Despite best efforts, mistakes will be made. One manufacturer calculates that 7 to 10 percent of non-Vermont product could be shipped to Vermont in error. That manufacturer will face penlites of $1,000 per day per product. For a large company that has 2,500 SKUs, could translate to 175,000, or $250,000 in daily fines. Multiplied by thousands of products among multiple companies, these fines quickly reach tens of millions of dollars. Products would long shelf lines greater than 18 months that are currently in distribution or already on the shelves will be subject to fines.    Mr. Chairman, from a supply chain logistical perspective, this law really is a nightmare. U.S. Consumers benefit from the safest and most efficient food supply in the world. I urge Congress to protect our national food system from an unnecessary patchwork of state-labeling schemes that will hurt American employers and do nothing to protect consumers.    I thank you very much for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman.    I recognize Mr. Daloz for 5 minutes for an opening statement.</t>
   </si>
   <si>
-    <t>Daloz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Daloz. Thank you. Chairman Pitts, Ranking Member Green, Congressman Welch, and members of the subcommittee, thank you for the opportunity to testify today. As you are well aware, the State of Vermont has been deeply involved in the labeling of food produced with genetic engineering, passing a law requiring such labeling, which will take effect a little over a year from now. Vermont's Attorney General, Bill Sorrell, is tasked with the enforcement of this law and has adopted regulations implementing the law. My name is Todd Daloz, I am an assistant attorney general, and I am testifying today on behalf of Attorney General Sorrell about the draft legislation and the discussion draft of the H.R. 1599 and to discuss and answer questions about Vermont's experience in labeling foods produced with genetic engineering.    In my oral testimony, I want to highlight two main points as we begin. The first is the role of states within our democracy and the importance of the state and the Federal Government in sharing responsibility for protecting consumers.    What is most troubling about the proposed legislation, both the draft in front of you and the discussion draft, is that it would cut short and prematurely end state efforts to label foods before Vermont's law even takes effect. It also offers no substantive replacement for the regulations Vermont has in place.    Vermont does not oppose all of the Federal regulation in this area, nor even all elements of the bill. What is important to Vermonters is the ability to have accurate factual information in front of them in order to make informed decisions about their food purchasers.    And this is a historical design of our democracy. States, in the famous words of Justice Brandeis, have long been the laboratory of democracy, experimenting with social and economic policy in manners that allow them to test how policy works and determine the best course. And there is a robust history of states leading the way towards ultimate Federal regulation.    Two simple examples that come to mind, the first is fair credit reporting. Vermont and other states were among the first to require credit reporting to consumers. And as we all know, Congress ultimately moved forward with that, making it national law.    Another example that was referenced by Mr. Blasgen is menu labeling--I believe it was Rick--menu labeling, which New York began requiring the labeling of certain nutrition facts at chain restaurants. Vermont and other states followed suit, and recently the FDA has implemented the same informational labeling requirement nationwide.    Vermont's Act 120 is no different than that. It is the state taking a lead role in requiring a factual disclosure, a simple, four-word factual disclosure on the back of the package, stating nearly, produced with genetic engineering. It is not a warning. It is a notification. And it is a notification that is there to provide consumers with accurate information so, as the Vermont legislature found, they can make intelligent choices about their consumption.    And that is the second point I want to talk about. Trusting people to make their own decisions is a fundamental American principle. And what Act 120 does is trust consumers to make their own decisions. It trusts consumers to be intelligent and make intelligent choices.    There was tremendously strong demand in Vermont for this labeling bill. There is, in fact, strong demand across the country for such labeling. The legislature found that giving consumers this information enables them to make a choice similarly to calorie counts, to cartoon figures on the front of the package, to flavor. This is another piece of information that consumers want in order to make a decision about whether and how they will purchase their food.    And it is important that there is no state oversight of what information is disclosed. It is nearly the presence of materials that have been produced with genetic engineering. This is not the state determining what is right for consumers to know. This is the state simply providing information for consumers to make decisions on.    Lastly, I want to briefly touch upon the fact that Vermont's law also has flexibility in it. It doesn't mandate exactly where the disclosure has to be placed. It doesn't mandate the size of the font. It provides a floor for where the font is and where the disclosure should go, and that kind of flexibility, I think, is important as manufacturers and retailers begin to comply with Vermont's law.    So I want to thank the committee and Chairman Pitts and also Representative Pallone for inviting me here today, and I am happy to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you.    Mr. Reifsteck, you are recognized for 5 minutes for your summary.</t>
   </si>
   <si>
-    <t>Reifsteck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Reifsteck. Thank you. Chairman Pitts, Ranking Member Green, and members of the subcommittee, thank you for holding today's hearing. I am John Reifsteck, a grain farmer from Campaign County, Illinois, and chairman of the board of GROWMARK, a regional agricultural cooperative base in Bloomington, Illinois. Our co-op is owned by local member cooperatives and provides input such as seed, fuel, plant nutrients, crop protection products, and grain marketing services.    I appreciate the opportunity to testify before you today on behalf of GROWMARK, the National Council of Farmer Cooperatives, and the Coalition for Safe and Affordable Food. I live in the farmhouse my grandfather built 101 years ago. The farm has sustained three generations of my family. My father and grandfather were good farmers, but the tools and the practices they used in our farm back then would not be good enough to meet the needs of our country and our world today. Instead, each generation of my family has used new technology to build on successes of the past.    Global Positioning System, automatic steering, and biotechnologies are examples of new tools available today that future generations will use to build a better agriculture tomorrow.    I know firsthand the value biotech crops provide for my operation. My farming experiences illustrate this. In the past, I have abandoned parts and fields that were riddled with insect damage or overcome by weeds. Harvesting those fields are not just an economic loss, but it presents a real risk of fiscal harm to my farm employees as did myself.    These are memories I won't forget. They represent past challenges that biotechnology has helped me overcome. I am very proud to say that GROWMARK has been a key part of the solution to these problems. Our affiliated companies and farmer owners have been directly involved with use of biotechnology crops for a number of years. GROWMARK was at the forefront of providing this technology to producers when it first introduced in the 1990s. I have successfully used biotech feeds in my farm since it became available. I believe the rapid adoption of these products reflects an understanding of their value and real-world benefits.    Farmers also realize that crops they grow today benefiting from biotechnology are just as safe and healthy as the crops grown by their parents and their grandparents. This is important to farmers and is providing our customers with safe quality products as our number-one priority.    Biotechnology provides substantial benefits to producers, to the environment, and to consumers. To reverse course now would wreak havoc amongst America's agricultural industry. Make no mistake, that is what a patchwork of biotech labeling laws would represent, an unworkable step backward. A growing concern among farmers and co-op managers is this patchwork would not stop at the State level, but perhaps could extend down to the individual cities, counties and even townships. Food and agricultural companies, including cooperatives like GROWMARK, would have no choice but to comply with hundreds, perhaps even thousands, of varying, if not directly conflicting, labeling laws. A near impossible task for us.    The Safe and Accurate Food Labeling Act introduced to this Congress by Representatives Mike Pompeo and G.K. Butterfield would ensure that the labeling of biotech ingredients of food products is based on consistent standards using sound science. It would allow those who wish to label their products as GMO free to do so by utilizing a verified process offered through the USDA, very similar to that of the Department's successful certified organic program.    I encourage members of this committee and Congress to support the Safe and Accurate Food Labeling Act. This bill would ensure the consumers are provided with accurate and consistent information about the food they purchase while preserving the choices available to grocery shoppers and to our Nation's farmers.    In conclusion, I strongly urge the subcommittee to support a voluntary, uniform, and national standard for labeling food products derived from biotech ingredients. The impact of not taking action would have a devastating effect on food and agricultural companies across the country, as well as farmers whose livelihoods depend on the freedom to conduct their business using the best methods available to them.    Thank you, again, for the opportunity to testify before this committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman.    Now I recognize Mr. Jaffe, 5 minutes for your summary.</t>
   </si>
   <si>
-    <t>Jaffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jaffe. Chairman Pitts, Ranking Member Green, I want to thank the House Committee on Energy and Commerce and the Subcommittee on Health for having today's hearing and inviting me as a witness on behalf of the Center for Science in the Public Interest.    The issues surrounding the proper role of the Federal Government in the oversight of genetically engineered crops and the labeling of foods made with or without ingredients from those crops are issues of obvious public concern that Congress needs to address. It is critical that the Federal Government ensures that all GE crops are safe and that whatever information is provided to consumers about foods and ingredients made from those crops be truthful, neutral, and nonmisleading. I am here today as the director of CSPI's biotechnology project. CSPI is a nonprofit consumer organization established 44 years ago. CSPI works primarily on food safety and nutrition and publishes our nutrition action newsletter to educate consumers on issues surrounding diet and health. CSPI receives no funding from industry or the Federal Government.    CSPI has long advised consumers, journalists, and policymakers that foods and ingredients from currently grown GE crops are safe to eat. The current crops have also provided tremendous benefits to farmers and the environment in both the United States and around the world. CSPI has advocated for improvements in current Federal oversight to ensure safety to humans, animals, the environment, and agriculture.    I will limit my testimony today to the Federal Government's oversight of food and feed safety issues, which are the primarily responsibility of the FDA and directly related to this hearing. FDA ensures the safety of food under the Food, Drug, and Cosmetic Act. Under that law, FDA has established a voluntary consultation process whereby developers of GE seeds can provide FDA with safety data and their analysis of those data to show FDA that the crop is substantially equivalent to its conventional counterpart.    When FDA consultation is completed, FDA responds that the seed developer by stating in a letter that FDA has ``No further questions about the developer's determination that the GE crop is substantially equivalent to its conventional counterpart.''    CSPI believes that FDA should determine the safety of all GE food crops before foods from those crops enter our food supply. FDA should review the safety data submitted by the developer, conduct its own analysis of that data, and provide the developer and the public with its opinion on whether foods from GE crops are safe to eat by humans and animals. That would be consistent with how most other countries ensure the safety of GE crops.    H.R. 1599 goes only a small step towards what we believe is the proper role of FDA to ensure the safety of GE crops and the foods made from them. H.R. 1599 would codify the current FDA voluntary consultation process. It does not require, however, FDA to provide its opinion on each particular GE crop safety. In addition, it does not put the burden of proof on the notifier to satisfy FDA that the GE food crops or foods and ingredients made from the crops are safe before marketing the GE crop.    The recently announced amendments to H.R. 1599 does not correct those major deficiencies and does not grant FDA any new legal authority to ensure that GE food crops are safe. Instead, it amends the Plant Protection Act to state that a GE crop that has been granted nonregulated status under USDA regulations cannot be marketed in interstate commerce until the USDA has received from the developer the ``no further questions'' letter it receives from FDA. FDA would still not need to make its own independent determination that the GE food crops meet the safety standard, and the amendment does not provide FDA with the needed authority to prevent foods or ingredients from GE crops from entering the food supply until the notifier satisfies FDA of their safety.    H.R. 1599 and the amendment provides USDA's agricultural marketing service with unique legal authority to establish a certification and labeling system for food manufacturers who wish to label foods that either contain or do not contain ingredients from GE crops. CSPI supports the Federal Government's oversight of GE and non-GE labels to ensure they are truthful, neutral, and nonmisleading. There is no standard definition of what it means to be a non-GMO, no standard way to describe that claim in a neutral manner, and no way for the consumers to know if that claim is accurate.    While CSPI believes that there is no benefit to consumers from avoiding foods that contain ingredients from GE crops, CSPI understands that some consumers do want to buy such foods. The system that would be implemented at USDA if Congress passed H.R. 1599 would go a long way towards uniform labels with verifiable, nonmisleading claims.    Therefore, CSPI endorses that portion of this legislation. I thank the committee for allowing me to testify, and I am happy to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman. Right on time.    The members are voting on the floor. We still have 12 minutes. So we are going to continue the witnesses' testimony and some questions before we recess to go to the floor to vote, and then we will come back.    Mr. Giddings, you are recognized 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Giddings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Giddings. Thank you, Mr. Chairman, Mr. Green. I very much appreciate the invitation to testify before you this morning on behalf of the Information Technology &amp; Innovation Foundation on the safety and appropriate labeling for crops and foods improved for biotechnology. ITIF is a nonpartisan research and educational think tank whose mission is to formulate and promote public policies to advance technological innovation and productivity. We focus on innovation issues. We have long been involved in the conversations about agricultural biotechnology and how best to ensure its widely shared benefits to humans and the environment are not burdened by ill-considered policies, especially those based on fear and misunderstanding.    I very much appreciate the opportunity to comment on these issues here today and thank, in particular, Mr. Pompeo for proposing this legislation, which I think is approaching perfection as a solution to some of the problems we face in this area on public policy.    The introduction of crops improved through biotechnology, often called GMOs, has been one of the greatest booms to humanity in the last 10,000 years of our history. No other innovation in agriculture has been taken up more widely or more quickly, and none other has delivered greater benefits to humans, our livestock, and companion animals and the environment. These crops have been grown over the two decades on over 4 billion acres worldwide. Last year alone, they were grown on 448 million acres by 18 million farmers in 28 countries legally, including a lot more where they were grown by farmers without government sanction where the farmers could get access to the seeds.    The farm gate value added has totaled more than $120 billion. And the environmental impacts of agriculture have been reduced, on average, by 18 percent. This has entailed a 37 percent reduction in the use of pesticides, a 22 percent increase in yields, and a 68 percent increase in farmer income.    The single most important element in the equation of credit for this avalanche of global benefits is the science-based regulatory process adopted by the United States in 1986 for which you and your colleagues and your predecessors bear an enormous amount of credit.    The bipartisan endorsement supporting the science-based approach to regulation that has been in place in the United States for the past four decades has been absolutely essential and made it possible for this technology to be developed, adapted, and disseminated. The intention of H.R. 1599 to extend this legacy of bipartisan support for science-based regulation is important as special interests seek to undermined its credibility and authority with false claims and ill-considered policy proposals at every level, particularly at the State level. Congress clearly has authority to address these issues and should formally preempt state level actions as the Constitution directs in Article 1, Section 8, Clause 3, the interstate commerce clause.    I am less enthusiastic and, indeed, would advise against one provision before you in this legislation, which would change the nature of the FDA safety review process for bioengineered foods by making it mandatory. It widely acknowledged that the biotech-derived foods on the market today are safe, that they have all gone through this review process, the review process has worked and is working well, does not need any fixing; there are no safety issues outstanding, which it fails to address.    I know that there are those who favor making this process mandatory, but if Congress were to take that step, it would, for the first time, step away from the science-based regulation that has served us so well for decades. I say this because the term ``GMO'' is an artificial construct, and it does not represent a meaningful class of items deserving of special, much less discriminatory, regulatory status or scrutiny. That category further bears no meaningful relation to hazard or risk. GM is a process. It is not a product. Provisions with FDA regulations on labeling already in place mandate consumer information about the contents of the foods that they buy and consume.    So I would enter a plea that as you consider these issues, please think carefully about what will help accomplish your objectives and what will not. Making it clear to the States that labeling is a Federal responsibility, that is something that would be helpful. Actions that some will construe and represent to be an acknowledgement that there are safety issues or concerns where, in fact, there are none, would not be helpful. Thank you for the opportunity to speak to you this morning, and I am happy to answer any questions.</t>
   </si>
   <si>
@@ -340,9 +301,6 @@
     <t xml:space="preserve">    Mr. Pitts. The time of the recess having expired, we will continue with the questions.    And, at this point, the chair recognizes the gentleman from Kentucky, Mr. Whitfield, 5 minutes for questions.</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Chairman.    And I want to thank all of the witnesses for joining us today on this very important subject. As a matter of fact, I walked out of this hearing to go back to my office before I went to the floor for a vote, and there were a group of seven people in there who wanted to talk about this bill. So somebody is really organized today, Mr. Shimkus. But it is an important issue.    And, Mr. Jaffe, I would like to just ask for your comments. FDA has made it very clear that their current consultation process is rigorous, involves a number of experts well versed in these methods, and is entirely, to use their words, entirely sufficient for purposes of reviewing the safety of these products.    And so, if the FDA is perfectly comfortable in the process, feels that it adequately protects the public and food safety, why are you arguing for new legal authority that FDA does not believe it even needs?</t>
   </si>
   <si>
@@ -442,9 +400,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman.    And to my friend, Ranking Member Pallone, my question is going to follow up on yours in two points.    So one is, that the country feeds the world. United States, we feed the world. And I would argue, being from Illinois--and I am glad John is here--Illinois and the Midwest is a predominant producer of base commodity products that go around the world.    So, John, these two questions are for you. First of all, the last couple years, we had a pretty big drought. Had we had that drought a decade ago or two decades ago, what would have been the result? And what made our ability to withstand the drought survivable?</t>
   </si>
   <si>
@@ -523,9 +478,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you, Mr. Chairman, for holding this hearing.    And I thank each of our witnesses for your testimony.    I firmly believe that consumers have the right to make informed decisions about the food they eat. I hope this is a point on which we all can agree.    And I think there is general agreement that a good Federal standard for genetically engineered, or GE, labeling is preferable to a confusing patchwork of State labeling rules. But there is disagreement about exactly what that standard should be. And I am not convinced that H.R. 1599 will assure consumers that they have the reliable and clear information that they are looking for.    Dr. Jaffe, do you think this bill meets consumer demands for clear, consistent labeling of GE products?</t>
   </si>
   <si>
@@ -586,9 +538,6 @@
     <t>412427</t>
   </si>
   <si>
-    <t>Larry Bucshon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Bucshon. Thank you very much, Mr. Chairman.    I just want to say I support the consumer's right to know what is in their food products, but I also think it should be based on science. And I support Congressman Pompeo's legislation.    I know it has been said, but I want to reiterate for the record some quotes from organizations around the world, really, talking about GMO.    American Medical Association: ``Our AMA recognizes that there is no evidence that unique hazards exist either in the use of GE techniques or in the movement of genes between unrelated organisms. Bioengineering foods have been consumed for close to 20 years, and, during that time, no overt consequences on human health have been reported or substantiated in peer-reviewed literature.''    Natural Academies of Science: ``Genetic engineering is one of the newer technologies available to produce desired traits in plants and animals used for food, but it poses no health risks that cannot also arise from conventional breeding and other methods used to create new foods.'' They go on to say, ``An analysis of the U.S. experience with genetically engineered crops shows that they offer substantial net environmental and economic benefits compared to conventional crops. Generally, GE crops have fewer adverse effects on the environment than on non-GE crops produced conventionally.''    And, finally, the World Health Organization: ``GM foods currently available on the international market have passed risk assessments and are not likely to present risks for human health. In addition, no effects on human health have been shown as a result of the consumption of such foods by the general population in the countries where they have been approved.''    So, that said, as a medical doctor, I was charged with advising patients on therapy that works, therapy that doesn't work. And, of course, based on the Internet and other sources, there are all kinds of proposed therapies for cancer and heart disease out there that have been unsubstantiated that patients frequently ask me about.    And so I guess my question to everyone on the panel is, should people like elected officials or other people who are in charge of informing the public, should we buy into what I see is a movement without really substantiated reason to be there in the first place? Or, for example, me, buy into a treatment that is not proven to be effective? Or should I lead and should I say to my patients or should I say to the general public what the facts are and not buy into unsubstantiated claims?    And what I see honestly is really, for the most part, a political and economic movement--political because of misinformation and economic because of companies that want their product to be labeled non-GMO so that they can compete with everybody else.    So I will start at the end, and just comment on what your thoughts are. Should we buy in, or should we inform the public and stand up to what is clearly misinformation?</t>
   </si>
   <si>
@@ -685,9 +634,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    This is a great hearing. I appreciate the witnesses' comments. And, certainly, I am a big supporter of Mr. Pompeo's bill.    As we move into an area that I like to equate to hydrofracking, the scare tactics, the disinformation, the misinformation, the outright lies surrounding the safety of hydrofracking took on a life of their own for several years, to the point New York State banned hydrofracking. And, lo and behold, the EPA finally came out with an exhaustive study that said without any doubt that hydrofracking, when done properly, is absolutely safe and does not impose any risks on groundwater contamination. But for 2 years, people were on the Internet showing tap water coming out of the taps and putting a lighter to it and starting it on fire and scaring the bejesus out of the public, that, oh, my God, if that is hydrofracking, you are going to be drinking contaminated water.    I compare that very similar to where we are today on this GMO debate. The opponents of it, like hydrofracking, have gotten out in front and basically said GMO equals bad, GMO equals dangerous. And so now people are at a point where, if they put anything to do with GMOs on their label, the average consumer, from misinformation and disinformation, is going to say, I don't want to buy that. Well, that is a tragedy for America, for the American consumer, and it just is, unfortunately, the facts of the life we live in.    Also, the other issue that I know is problematic is, if every state creates their own labeling standards, if every town and every county, if all 62 counties in New York create their own labeling standard, the types of costs that are going to be passed on to consumers would be mind-boggling.    We have a Cheerios plant just outside of my district, and if every box of Cheerios, you had to create a thousand different boxes because every village, every city, every town, every county, every state in America decided to willy-nilly pass their own laws, you wouldn't be able to afford a box of Cheerios.    And, frankly, as the supply and demand chain goes for a very small state with very few consumers, they would just stop selling in that state. Vermont can go do what they want, but somebody might say, based on the cost of serving a very small market, I guess we will just no longer sell our product into that market. That is what consumers seriously need to be worried about.    So I am just very happy that the FDA would be--we are asking them to do a study on the safety, like we asked the EPA to do a study on the safety of hydrofracking and it came back safe. And I am confident the same study will show that to be the case for GMOs.    And I do think that Congress does have a role to play if there is labeling. We need to be preemptive and cut out the states from willy-nilly, putting out a thousand different sets of regulations. I am a small-government, local-decision-making guy, but this is a place for the Federal Government to step forward.    But an observation and question, perhaps, to Mr. Blasgen: Cornell University, just, again, outside my district, did a study, and the study was: What would be the cost--now, this is certainly an estimate, but they did an actual data-based study--to the average consumer in America were these willy-nilly labeling by state, by town, by county, by village to go forward? And it was $500 at the end. They concluded the average family would be paying an additional $500 a year just for these labels on boxes. And $500 is a significant dent for getting nothing more than the cost on the producers.    And I just wondered, Mr. Blasgen, have you seen similar studies? Does that make sense? Let's be honest with the consumers: do you want to pay an extra $500 a year?</t>
   </si>
   <si>
@@ -709,9 +655,6 @@
     <t>412315</t>
   </si>
   <si>
-    <t>Kurt Schrader</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you, Mr. Chairman.    I guess questions for Mr. Jaffe and Mr. Reifsteck: What is the purpose of FDA labeling? What is the statutory requirement? Why do we label food?    Mr. Jaffe?</t>
   </si>
   <si>
@@ -733,9 +676,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. I will try to be quick.    Mr. Jaffe, you indicated in one of the answers earlier that you didn't--and correct me if I got it wrong--that you didn't see any concerns today about allergens, that none of the foods that are out there now that have been genetically engineered have allergen problems, but you were concerned about the future.    Can you get me information on that, if I got that information correct from you originally? Was that correct, what I thought I heard you say?</t>
   </si>
   <si>
@@ -757,9 +697,6 @@
     <t>412212</t>
   </si>
   <si>
-    <t>John P. Sarbanes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sarbanes. Thank you, Mr. Chairman. I will be shorter than 5 minutes.    I want to thank the panel.    Mr. Jaffe, long time, no see. Thank you for your testimony.    I confess to you, my head is kind of exploding on this, just trying to balance all of these different concerns. So I am still absorbing a lot of the information and perspective related to it.    I take it, Mr. Jaffe, that even though there is a system now whereby the FDA, in effect, says that they think things are OK because they issued this letter that says they don't have any further questions, that you don't view that as an affirmative enough judgment being rendered by the FDA with respect to the safety of the item that is subject to the letter.    Can you just elaborate a little bit more on why you feel that a more proactive, affirmative statement or standard or judgment or opinion on the part of the FDA would make sense in the context of this proposal?</t>
   </si>
   <si>
@@ -785,9 +722,6 @@
   </si>
   <si>
     <t>412539</t>
-  </si>
-  <si>
-    <t>Susan W. Brooks</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Brooks. Mr. Chairman, I heard yesterday from Beck's Hybrids, a family-owned pioneer in the biotech world in seed production, who is in strong support of this bill.    And I yield the remainder of my time to the gentleman from Kansas, Mr. Pompeo.</t>
@@ -1231,11 +1165,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1255,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1283,11 +1213,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1307,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1335,11 +1261,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1359,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1385,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1411,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1437,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1465,11 +1381,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1489,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1515,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1543,11 +1453,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1567,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1595,11 +1501,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1619,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1647,11 +1549,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1671,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1699,11 +1597,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1723,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1751,11 +1645,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1775,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1803,11 +1693,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1827,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1855,11 +1741,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1879,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1907,11 +1789,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1931,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1959,11 +1837,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1983,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2011,11 +1885,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2035,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>51</v>
-      </c>
-      <c r="H33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2063,11 +1933,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2087,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2115,11 +1981,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2139,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2167,11 +2029,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2191,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2219,11 +2077,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2243,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2271,11 +2125,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2295,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2323,11 +2173,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2347,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2375,11 +2221,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2399,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2427,11 +2269,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2451,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2479,11 +2317,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2503,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2531,11 +2365,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2555,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2583,11 +2413,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2607,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2635,11 +2461,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2659,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2687,11 +2509,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2711,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2739,11 +2557,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2763,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2791,11 +2605,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2815,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G63" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2843,11 +2653,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2867,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2893,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G66" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2919,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2945,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2971,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2997,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3023,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3049,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3075,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3101,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3127,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3153,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3179,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3205,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3231,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3257,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3283,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3309,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3335,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3361,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
-      </c>
-      <c r="G84" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3387,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3413,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
-      </c>
-      <c r="G86" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3439,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3467,11 +3229,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3493,11 +3253,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3517,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3543,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
-      </c>
-      <c r="G91" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3569,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3595,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
-      </c>
-      <c r="G93" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3621,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3647,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3673,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
-      </c>
-      <c r="G96" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3699,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
-      </c>
-      <c r="G97" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3725,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G98" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3751,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
-      </c>
-      <c r="G99" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3777,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
-      </c>
-      <c r="G100" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3805,11 +3541,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3829,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3855,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3881,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3907,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
-      </c>
-      <c r="G105" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3933,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
-      </c>
-      <c r="G106" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3959,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
-      </c>
-      <c r="G107" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3985,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4011,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
-      </c>
-      <c r="G109" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4037,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
-      </c>
-      <c r="G110" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4063,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
-      </c>
-      <c r="G111" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4089,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4115,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
-      </c>
-      <c r="G113" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4141,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
-      </c>
-      <c r="G114" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4167,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
-      </c>
-      <c r="G115" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4193,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
-      </c>
-      <c r="G116" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4219,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4245,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
-      </c>
-      <c r="G118" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4273,11 +3973,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4297,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
-      </c>
-      <c r="G120" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4325,11 +4021,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4349,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
-      </c>
-      <c r="G122" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4375,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
-      </c>
-      <c r="G123" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4401,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
-      </c>
-      <c r="G124" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4427,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
-      </c>
-      <c r="G125" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4453,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>141</v>
-      </c>
-      <c r="G126" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4479,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
-      </c>
-      <c r="G127" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4505,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
-      </c>
-      <c r="G128" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4531,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
-      </c>
-      <c r="G129" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4557,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>141</v>
-      </c>
-      <c r="G130" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4583,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
-      </c>
-      <c r="G131" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4609,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G132" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4635,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
-      </c>
-      <c r="G133" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4661,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>141</v>
-      </c>
-      <c r="G134" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4687,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
-      </c>
-      <c r="G135" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4713,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>141</v>
-      </c>
-      <c r="G136" t="s">
+        <v>127</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
         <v>142</v>
-      </c>
-      <c r="H136" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4739,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
-      </c>
-      <c r="G137" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4765,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>141</v>
-      </c>
-      <c r="G138" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4791,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4817,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>141</v>
-      </c>
-      <c r="G140" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4843,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
-      </c>
-      <c r="G141" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4869,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>141</v>
-      </c>
-      <c r="G142" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4895,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
-      </c>
-      <c r="G143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>51</v>
-      </c>
-      <c r="H143" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4921,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>141</v>
-      </c>
-      <c r="G144" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4947,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
-      </c>
-      <c r="G145" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4973,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>141</v>
-      </c>
-      <c r="G146" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5001,11 +4645,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5025,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>168</v>
-      </c>
-      <c r="G148" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5051,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
-      </c>
-      <c r="G149" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5077,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>168</v>
-      </c>
-      <c r="G150" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5103,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
-      </c>
-      <c r="G151" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5129,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>168</v>
-      </c>
-      <c r="G152" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5155,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
-      </c>
-      <c r="G153" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5181,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>168</v>
-      </c>
-      <c r="G154" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5207,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
-      </c>
-      <c r="G155" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5233,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>168</v>
-      </c>
-      <c r="G156" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5259,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
-      </c>
-      <c r="G157" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5285,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>168</v>
-      </c>
-      <c r="G158" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5311,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
-      </c>
-      <c r="G159" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5337,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>168</v>
-      </c>
-      <c r="G160" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5363,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
-      </c>
-      <c r="G161" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5389,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>168</v>
-      </c>
-      <c r="G162" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5415,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
-      </c>
-      <c r="G163" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5441,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>168</v>
-      </c>
-      <c r="G164" t="s">
+        <v>153</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>169</v>
-      </c>
-      <c r="H164" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5467,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
-      </c>
-      <c r="G165" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5493,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>168</v>
-      </c>
-      <c r="G166" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5521,11 +5125,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5545,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
-      </c>
-      <c r="G168" t="s">
-        <v>190</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5571,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
-      </c>
-      <c r="G169" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5597,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
-      </c>
-      <c r="G170" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5623,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
-      </c>
-      <c r="G171" t="s">
-        <v>190</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5649,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
-      </c>
-      <c r="G172" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5675,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>189</v>
-      </c>
-      <c r="G173" t="s">
-        <v>190</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5701,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
-      </c>
-      <c r="G174" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5727,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>189</v>
-      </c>
-      <c r="G175" t="s">
-        <v>190</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5753,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
-      </c>
-      <c r="G176" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5779,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
-      </c>
-      <c r="G177" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5805,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
-      </c>
-      <c r="G178" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5831,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>189</v>
-      </c>
-      <c r="G179" t="s">
-        <v>190</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5857,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
-      </c>
-      <c r="G180" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5883,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>189</v>
-      </c>
-      <c r="G181" t="s">
-        <v>190</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5909,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
-      </c>
-      <c r="G182" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5935,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
+        <v>173</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
         <v>189</v>
-      </c>
-      <c r="G183" t="s">
-        <v>190</v>
-      </c>
-      <c r="H183" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5963,11 +5533,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5987,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6015,11 +5581,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6039,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6067,11 +5629,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6091,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6117,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
-      </c>
-      <c r="G190" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6143,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6169,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
-      </c>
-      <c r="G192" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6195,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6221,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
-      </c>
-      <c r="G194" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6247,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6273,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
-      </c>
-      <c r="G196" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6299,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6325,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
-      </c>
-      <c r="G198" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6351,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6379,11 +5917,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6403,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>222</v>
-      </c>
-      <c r="G201" t="s">
-        <v>223</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6429,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
-      </c>
-      <c r="G202" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6455,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>222</v>
-      </c>
-      <c r="G203" t="s">
-        <v>223</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6481,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
-      </c>
-      <c r="G204" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6507,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>222</v>
-      </c>
-      <c r="G205" t="s">
-        <v>223</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6535,11 +6061,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6559,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>230</v>
-      </c>
-      <c r="G207" t="s">
-        <v>231</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6585,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
-      </c>
-      <c r="G208" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6611,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
-      </c>
-      <c r="G209" t="s">
-        <v>231</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6637,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
-      </c>
-      <c r="G210" t="s">
-        <v>51</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6663,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
-      </c>
-      <c r="G211" t="s">
-        <v>231</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6691,11 +6205,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6715,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>238</v>
-      </c>
-      <c r="G213" t="s">
-        <v>239</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6741,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
-      </c>
-      <c r="G214" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6767,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>238</v>
-      </c>
-      <c r="G215" t="s">
-        <v>239</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6793,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
-      </c>
-      <c r="G216" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6819,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>238</v>
-      </c>
-      <c r="G217" t="s">
-        <v>239</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6847,11 +6349,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6871,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>246</v>
-      </c>
-      <c r="G219" t="s">
-        <v>247</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6897,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
-      </c>
-      <c r="G220" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6923,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>246</v>
-      </c>
-      <c r="G221" t="s">
-        <v>247</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6949,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
-      </c>
-      <c r="G222" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6975,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>246</v>
-      </c>
-      <c r="G223" t="s">
-        <v>247</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7001,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
-      </c>
-      <c r="G224" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7027,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>246</v>
-      </c>
-      <c r="G225" t="s">
-        <v>247</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7055,11 +6541,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7079,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>256</v>
-      </c>
-      <c r="G227" t="s">
-        <v>257</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7105,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>28</v>
-      </c>
-      <c r="G228" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7131,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
-      </c>
-      <c r="G229" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7157,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>28</v>
-      </c>
-      <c r="G230" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7183,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
-      </c>
-      <c r="G231" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7209,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>28</v>
-      </c>
-      <c r="G232" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7235,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
-      </c>
-      <c r="G233" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7261,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>28</v>
-      </c>
-      <c r="G234" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7287,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
-      </c>
-      <c r="G235" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7313,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>28</v>
-      </c>
-      <c r="G236" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7339,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
-      </c>
-      <c r="G237" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7365,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>28</v>
-      </c>
-      <c r="G238" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7391,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
-      </c>
-      <c r="G239" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7417,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>28</v>
-      </c>
-      <c r="G240" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7445,11 +6901,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97704.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pitts. Good morning. I ask that all of our guests today please take their seats. The subcommittee will come to order. The chair will recognize himself for an opening statement.    Genetically modified organisms, or GMOs, is a term that refers to ingredients sourced from crops that have been genetically engineered to express certain traits or characteristics.    There are real sensitivities around these issues and all issues regarding the food we eat and feed our children and grandchildren. It is our job, as policymakers, particularly as it relates to the public health, to establish a factually and scientifically sound foundation prior to taking any action that would impact consumers and our economy.    This hearing provides a great opportunity to put rhetoric aside and do just that. Genetic engineering in agriculture has occurred for centuries. Ingredients from genetically engineered plants have been a part of the U.S. Food supply for decades.    In fact, as much as 90 percent of our corn, sugar beet, and soybean crops are now genetically engineered and more than 70 percent of processed foods contain ingredients derived from such crops.    The Food and Drug Administration oversees the safety of all food products from plant sources, including those from genetically engineered crops. These products must meet the same safety requirements as foods from traditionally-bred crops. The FDA currently has a consultation in place which developers of the underlying technologies address any outstanding safety or other regulatory issues with the agency prior to marketing their products.    FDA has completed approximately 100 of such consultations. No products have gone to market until FDA's safety-related questions have been resolved. FDA officials have repeatedly stated that the agency has no basis for concluding that bioengineered foods are different from other foods in any meaningful way, and the World Health Organization has confirmed that ``No effects on human health have been shown as a result of consumption of such foods.'' In fact, they can grow faster, resist diseases and drought, cost less, and prove more nutritious. Nonetheless, there have recently been a number of State initiatives calling for the mandatory labeling of food products that contain GMOs.    We will hear today from a number of witnesses who can speak to such actions and the impact they would have. I am concerned that a patchwork of State labeling schemes would be impractical and unworkable. Such a system would create confusion among consumers and result in higher prices and fewer options.    Finally, I want to commend Representative Mike Pompeo and Representative Butterfield for their leadership on these issues and look forward to learning more about their continued efforts to work in a bipartisan manner on H.R. 1599, the Safe and Accurate Food Labeling Act of 2015. All these efforts will continue as the legislative process moves forward. I am encouraged that the revised language circulated in advance of this hearing has been informed by conversations between the sponsors, the committees of jurisdiction, the implementing agencies, and the impact of stakeholders.    I would like to welcome all of our witnesses for being here today. I look forward to your testimony. And I yield the balance of my time to distinguished vice chairman of the full committee, Representative Blackburn of Tennessee.</t>
   </si>
   <si>
     <t>400032</t>
   </si>
   <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman.    Welcome to all. And the chairman mentioned the food that we eat and that we feed our children and grandchildren. I want to add one category to that, what we feed our pets. And we are concerned about that aspect also.    I do appreciate Mr. Pompeo and the assistance they have given us as we look at pet food labeling. And the chairman also mentioned that we have had these products in the marketplace for decades. I would say we are talking about over 100 years. Go back and look at what farmers did. And they would breed cattle to get the best traits. Look at the work that George Washington Carver did in his 40 years of teaching and research at Tuskegee, looking for ways to improve the soil, looking at different varietals of peanut and sweet potatoes and improving the health of individuals in the south.    Genetically modified foods are components that are indeed with us, and it is because of them that we have greater yields per acre; we have more varieties, and that our farmers markets that I visit every single weekend are full of beautiful products that encourage people to access these fresh foods and bring them into their homes and kitchens.    With that, I thank all for their work. I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Mr. Chairman, I was glad our vice chair of the subcommittee worried about our pets. My problem is I had a dog one time that ate pillows and curtains and everything else. I think he ate everything he could get his mouth on.    Mr. Chairman, I have a statement I would like to put into the record, but I would like to yield my time to Congressman Butterfield.</t>
   </si>
   <si>
@@ -76,18 +97,36 @@
     <t>400616</t>
   </si>
   <si>
+    <t>Butterfield</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Butterfield. Thank you very much, Mr. Green and Mr. Pitts. Before beginning, Mr. Chairman, I just want to publicly extend my condolences to the families of the nine victims in Charleston, South Carolina who were horrifically murdered last night while attending a prayer meeting. So thank you, Mr. Chairman, for allowing me to digress for just a moment to offer my sympathies to those families.    Mr. Chairman, I support H.R. 1599. I am the bill's lead democratic co-sponsor. This bill is bipartisan. It proposes a national labeling standard for foods produced with genetically modified ingredients. The alternative is a complex and unworkable patchwork of differing state laws that can only cause confusion and do little to provide greater transparency. Several states have moved forward with proposals that would require foods containing ingredients to be labeled. This is in response to unsubstantiated claims that foods containing genetically modified ingredients are, in some way, dangerous in human consumption. I take exception to these unfair and downright dishonest claims.    Foods containing genetically modified ingredients are safe. The FDA, USDA, National Academy of Sciences, AAAS, the WHO, every major scientific and governmental organization agrees with that statement. Even opponents of genetically modified foods admit genetically modified foods have failed to produce any untoward health effects. But the demonization of genetically modified foods continues despite objective science proving to the contrary.    Those opposed to genetically modified foods simply reject science, and that is tremendously disappointing. And though I stand with science and my belief that these foods are safe, I understand the concerns expressed by the opponents and want to be responsive. That is why I have worked with my friend, Mr. Pompeo, and others in advocating for a Federal framework for labeling and crop commercialization that puts the FDA and USDA, our Nation's foremost food safety authorities, putting them in the driver's seat. 1599 is a balanced approach that reduces confusion by providing consumers with labeling uniformity across state lines that addresses the concerns of those who are opposed to genetically modified foods while not neglecting the fact that our Nation's farmers and manufacturers grow and produce foods that are so far and wide and not just within a state's borders. Without a Federal standard, Mr. Chairman, those farmers and manufacturers will be forced to comply with uneven costly and potentially misleading and onerous state-by-state mandates. Compliance will require new costly supply chain infrastructure that would disrupt the Nation's food supply, cause confusion and uncertainty. 1599 is reasonable. And most importantly, it is workable.    I want to thank the more than 60 bipartisan co-sponsors for joining me and Mr. Pompeo in agreeing that our bill is the best way forward.    I yield the remainder of my time to Mr. Welch of Vermont.</t>
   </si>
   <si>
     <t>412239</t>
   </si>
   <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Welch. I thank the gentleman. The issue here is not so much whether GMOs are safe. The issue is whether individual purchasers, consumers, who purchase food have a right to know that GMOs are part of the food they are buying. It is a consumer right-to-know issue. I agree with my colleagues that a national standard would be good, but there is no national standard in this bill. It is a voluntarily labeling, which means there will be no labeling whatsoever.    Many states are reflecting the desires of their consumers to basically know what is in the product they are buying, and the consumer has the right to do that. They just do. And this legislation is ironic in this sense: If GMOs are so safe, and I am not here to challenge that assertion, but if they are so safe, why not label so that folks who are getting what the manufacturers assert is so safe know that their product will be labeled and consumers can then make their own decision. My question really is, if they are so safe, why would anyone be afraid of labeling those products so that consumers would have a right to know?    Now, in Vermont we have our assistant attorney general here, Todd Daloz, who is going to talk about what we have done in Vermont. Three States have passed labeling laws. Several others are considering them. There have been referendums that almost passed in California and it is reflecting this groundswell of desire that consumers have to know what is in the products that they are buying.    Now, I am going to play a little unfair here, Mr. Chairman, because I am here today to give Mr. Pompeo----</t>
   </si>
   <si>
     <t>412431</t>
   </si>
   <si>
+    <t>Pompeo</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pompeo. Finally.</t>
   </si>
   <si>
@@ -100,6 +139,12 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Upton. Good morning. We continue our examination of the role biotechnology plays in our Nation's farms and in our food supply. Our food, as we know, is literally our lifeline. It is important for the public to be engaged. It is the job of this subcommittee to establish a record based on the facts and the science so we ultimately pass legislation that is in the best interest of our constituents and our economy.    At the hearing that we held in December of last year and in other venues since then, the FDA has been clear that the premarket consultation process currently in place to review food produced from genetically engineered crops is rigorous and the agency has no basis for questioning its safety. The WHO and every other legitimate health and scientific body that has examined this evidence has echoed the FDA's findings. Nonetheless, there are a number of state-specific labeling requirements in various stages of consideration that are inconsistent, potentially confusing to consumers, would increase food costs that cast out over the safety of biotechnology.    Mr. Pompeo and Butterfield have been working tirelessly on a bipartisan basis in putting together a clear, understandable national framework that maintains FDA'S current review process, codifies Federal labeling standards and related requirements, establishes a certification process that the Department of Agriculture, consistent with current organic program, for the labeling of products as being produced or developed without the use of genetic engineering.    The draft amendment to H.R. 1599 circulated before this hearing is another step in the right direction, and I commend the Ag Committee for working with us to get the bill through the House to ensure consumers will have a clear, concise, and consistent system to assist in their food choices. I yield the balance of my time to Mr. Pompeo.</t>
   </si>
   <si>
@@ -118,6 +163,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Today we will hear a range of views on why there should or should not be mandatory labeling of foods from genetically engineered or GE plants, and on why States should and should not be allowed to impose such labeling requirements.    I have been long been a proponent of strong food labeling requirements. I was an original co-sponsor of the Nutrition Labeling and Education Act of 1990. I was a strong advocate for the ACA provision requiring nutrition labeling on menus and sponsored legislation last year, which I will be reintroducing to update and strengthen current FDA nutrition labeling requirements. And I have strongly opposed any attempts to weaken existing labeling requirements, such as the Commonsense Nutrition Labeling bill, which I believe would impede consumer access to nutritional information on menus and restaurants, pizza parlors, grocery stores, and convenience stores.    So I am inclined to be skeptical of legislation aimed at limiting, rather than enhancing, information on a food label. At the same time, I recognize that the differences between nutrition labeling and GE labeling may warrant different regulatory approaches. Nutrition labeling provides information and enables consumers to make health-related choices on how they eat. There is no question in my mind the Federal government should food companies to put that information on food labels.    GE labeling is about the breeding techniques used to make agricultural crops. Food from such crops do not share any particular nutritional or health-related properties. A GE label provides no information on the consumption of the food or whether--on the composition of the food on whether it is good for bad for you, on whether it tastes good or bad, or on whether it is safe or unsafe. There is no scientific evidence that GE foods pose safety issues any different from non-GE foods.    I have to admit, when I hear critics argue that GE foods are dangerous, I feel the same way I do when I hear people deny climate change, argue against vaccinating children, or say they aren't scientists when asked if they believe in evolution. So from a science or health perspective, there doesn't seem to be a compelling government interest in forcing a food company to label a food that is made with or without genetic engineering.    That being said, if the State of Vermont wants to require food companies to put such information on their food labels, is there a compelling Federal Government interest in prohibiting them from doing so? Perhaps not. But I do think there is a compelling Federal interest in preventing any labeling that is false or misleading consistent with current law.    If mandatory GE labeling were inherently misleading, for example, because it implied that GE food was somehow inferior to normal food, that would seem to be a compelling reason to prohibit it. I am so far not convinced that the requirement imposed by Vermont would be inherently misleading. I would be interested in hearing from our panelists today on that question.    Now, there may be a compelling Federal interest from preventing companies from having to face 50 different food labeling regimes. In fact, it was a fear of such unworkable set of State food labeling requirements that led food companies and restaurants ultimately to support Federal requirements for nutrition labeling. To avoid a 50-state problem, there are two obvious solutions: We can band right-to-know labeling requirements outright, or we can replace them with a uniform Federal mandatory GE labeling requirement, but I personally think a voluntary labeling approach is more appropriate for GE labeling. I also don't believe in preempting State law without good reason.    So I think this is an important hearing, Mr. Chairman. There are a number of competing issues to weigh before moving forward on legislation, and I hope we will take our time in considering them. I yield back.</t>
   </si>
   <si>
@@ -127,30 +178,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Blasgen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Blasgen. Thank you very much, and good morning, Chairman Pitts and Ranking Member Green, and members of the subcommittee. My name is Rick Blasgen. I am president and chief executive officer of the Council of Supply Chain Management Professionals representing well over 8,500 members globally. Prior to joining CSCMP I was senior vice president for Integrated Logistics and ConAgra Foods, and in similar positions at Kraft Foods as well as Nabisco. I have been president and CEO of CSCMP since 2005. In this capacity, I serve as the primary issue expert relating to logistics and supply chain management.    I want to thank you very much for inviting me to explain the importance of national labeling frameworks. I will focus my remarks on the costs associated with Vermont's labeling mandate, a law that goes into effect on July 1, 2016, and imposes incalculable burdens on our Nation's largest manufacturing sector.    Grocery manufacturing is a high-volume, low-margin business, and any increase in cost, even by a matter of cents, can substantially affect a manufacturer and its supply chain. The primary cost centers in the supply chain are the cost of source materials, capital, operations, labor, storage, distribution centers, transportation, maintenance, and, of course, fuel. The supply chain for a processed food begins with the raw commodity. The supplier sells the raw food to a manufacturer, and the manufacturer stores the food at the plant until it is processed into its ingredient form. That ingredient may be the final product, such as in cooking oils, or it may be used in products containing multiple ingredients.    Finished goods are sent to a manufacturer's distribution center where they are stored until ready for transport into the customer's distribution center. The customer may be a national or regional chain or a regional distributor that sells to other retail outlets. The customer stores the finished goods at its center and distributes them to its retail outlets where they are sold finally to consumers. A manufacturer typically plans each stage of the supply chain to ensure it is handled as efficiently as possible. The core unit in a grocery manufacturer supply chain is the stock keeping unit, or SKU. This SKU is simply a unique identifying number that applies to each distinctly packaged and marketed product.    A single national SKU facilitates efficient storage, distribution, and inventory tracking. Manufacturers do not create different SKUs for different states. Vermont's legal time clock is ticking, and manufacturers will have to determine which products contain ingredients likely derived from GE crops. Companies will navigate Vermont's exemptions, such as foods bearing USDA-approved labels. Restaurant food is also exempted, and this could impact segregation and transportation costs. Each exemption provides more complexity to the supply chain, less clarity for consumers, and more red tape for manufacturers.    Manufacturers will have to make new labels with state-approved text and design. Labeling materials are one of the largest expenses affecting a manufacturer's bottom line. And the inventory left over when a manufacturer implements a labeling change must be discarded, which is a waste not only of materials, but the money the manufacturer may have spent in anticipation of using that stock. Waste and recycling charges will also apply.    At the processing facility, let's assume it takes 5 minutes to stop and start to accommodate the new package. This reduces production time as the companies pay for the lost time and labor, energy, and capital costs of depreciation.    Now assume a single plant with 10 lines running simultaneously, each with one Vermont run per payday, over 300 days in the year. That makes 500 lost hours per year, or about 3 weeks of idle time. These assumptions are meant for illustration with respect to only one single plant. Large manufacturers may have dozens of plants, and each plant may have dozens of production lines. The Vermont products would then need to be segregated from the other products and be placed on their own pallets. Pallets take up space wherever they go. They will take up space in warehouses, on trucks, and at customer distribution centers. These Vermont pallets must have sufficient space to reduce the risk of product being shipped to the wrong state; namely, product not intended for Vermont ending up on shelves there.    Manufacturers would have to renovate or purchase new storage space or real estate. Additional pallets means additional trucks will be needed to transport products to customers. The trucks are capital investments with ongoing maintenance needs and associated labor costs. And this is just on the manufacturing end of the supply chain. The products intended for Vermont must then go through distributors and/or retailer supply chain systems who purchase the product and thus, then, own it exponentially increasing the costs to service Vermont and also increasing the chance for error.    Despite best efforts, mistakes will be made. One manufacturer calculates that 7 to 10 percent of non-Vermont product could be shipped to Vermont in error. That manufacturer will face penlites of $1,000 per day per product. For a large company that has 2,500 SKUs, could translate to 175,000, or $250,000 in daily fines. Multiplied by thousands of products among multiple companies, these fines quickly reach tens of millions of dollars. Products would long shelf lines greater than 18 months that are currently in distribution or already on the shelves will be subject to fines.    Mr. Chairman, from a supply chain logistical perspective, this law really is a nightmare. U.S. Consumers benefit from the safest and most efficient food supply in the world. I urge Congress to protect our national food system from an unnecessary patchwork of state-labeling schemes that will hurt American employers and do nothing to protect consumers.    I thank you very much for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman.    I recognize Mr. Daloz for 5 minutes for an opening statement.</t>
   </si>
   <si>
+    <t>Daloz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Daloz. Thank you. Chairman Pitts, Ranking Member Green, Congressman Welch, and members of the subcommittee, thank you for the opportunity to testify today. As you are well aware, the State of Vermont has been deeply involved in the labeling of food produced with genetic engineering, passing a law requiring such labeling, which will take effect a little over a year from now. Vermont's Attorney General, Bill Sorrell, is tasked with the enforcement of this law and has adopted regulations implementing the law. My name is Todd Daloz, I am an assistant attorney general, and I am testifying today on behalf of Attorney General Sorrell about the draft legislation and the discussion draft of the H.R. 1599 and to discuss and answer questions about Vermont's experience in labeling foods produced with genetic engineering.    In my oral testimony, I want to highlight two main points as we begin. The first is the role of states within our democracy and the importance of the state and the Federal Government in sharing responsibility for protecting consumers.    What is most troubling about the proposed legislation, both the draft in front of you and the discussion draft, is that it would cut short and prematurely end state efforts to label foods before Vermont's law even takes effect. It also offers no substantive replacement for the regulations Vermont has in place.    Vermont does not oppose all of the Federal regulation in this area, nor even all elements of the bill. What is important to Vermonters is the ability to have accurate factual information in front of them in order to make informed decisions about their food purchasers.    And this is a historical design of our democracy. States, in the famous words of Justice Brandeis, have long been the laboratory of democracy, experimenting with social and economic policy in manners that allow them to test how policy works and determine the best course. And there is a robust history of states leading the way towards ultimate Federal regulation.    Two simple examples that come to mind, the first is fair credit reporting. Vermont and other states were among the first to require credit reporting to consumers. And as we all know, Congress ultimately moved forward with that, making it national law.    Another example that was referenced by Mr. Blasgen is menu labeling--I believe it was Rick--menu labeling, which New York began requiring the labeling of certain nutrition facts at chain restaurants. Vermont and other states followed suit, and recently the FDA has implemented the same informational labeling requirement nationwide.    Vermont's Act 120 is no different than that. It is the state taking a lead role in requiring a factual disclosure, a simple, four-word factual disclosure on the back of the package, stating nearly, produced with genetic engineering. It is not a warning. It is a notification. And it is a notification that is there to provide consumers with accurate information so, as the Vermont legislature found, they can make intelligent choices about their consumption.    And that is the second point I want to talk about. Trusting people to make their own decisions is a fundamental American principle. And what Act 120 does is trust consumers to make their own decisions. It trusts consumers to be intelligent and make intelligent choices.    There was tremendously strong demand in Vermont for this labeling bill. There is, in fact, strong demand across the country for such labeling. The legislature found that giving consumers this information enables them to make a choice similarly to calorie counts, to cartoon figures on the front of the package, to flavor. This is another piece of information that consumers want in order to make a decision about whether and how they will purchase their food.    And it is important that there is no state oversight of what information is disclosed. It is nearly the presence of materials that have been produced with genetic engineering. This is not the state determining what is right for consumers to know. This is the state simply providing information for consumers to make decisions on.    Lastly, I want to briefly touch upon the fact that Vermont's law also has flexibility in it. It doesn't mandate exactly where the disclosure has to be placed. It doesn't mandate the size of the font. It provides a floor for where the font is and where the disclosure should go, and that kind of flexibility, I think, is important as manufacturers and retailers begin to comply with Vermont's law.    So I want to thank the committee and Chairman Pitts and also Representative Pallone for inviting me here today, and I am happy to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you.    Mr. Reifsteck, you are recognized for 5 minutes for your summary.</t>
   </si>
   <si>
+    <t>Reifsteck</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Reifsteck. Thank you. Chairman Pitts, Ranking Member Green, and members of the subcommittee, thank you for holding today's hearing. I am John Reifsteck, a grain farmer from Campaign County, Illinois, and chairman of the board of GROWMARK, a regional agricultural cooperative base in Bloomington, Illinois. Our co-op is owned by local member cooperatives and provides input such as seed, fuel, plant nutrients, crop protection products, and grain marketing services.    I appreciate the opportunity to testify before you today on behalf of GROWMARK, the National Council of Farmer Cooperatives, and the Coalition for Safe and Affordable Food. I live in the farmhouse my grandfather built 101 years ago. The farm has sustained three generations of my family. My father and grandfather were good farmers, but the tools and the practices they used in our farm back then would not be good enough to meet the needs of our country and our world today. Instead, each generation of my family has used new technology to build on successes of the past.    Global Positioning System, automatic steering, and biotechnologies are examples of new tools available today that future generations will use to build a better agriculture tomorrow.    I know firsthand the value biotech crops provide for my operation. My farming experiences illustrate this. In the past, I have abandoned parts and fields that were riddled with insect damage or overcome by weeds. Harvesting those fields are not just an economic loss, but it presents a real risk of fiscal harm to my farm employees as did myself.    These are memories I won't forget. They represent past challenges that biotechnology has helped me overcome. I am very proud to say that GROWMARK has been a key part of the solution to these problems. Our affiliated companies and farmer owners have been directly involved with use of biotechnology crops for a number of years. GROWMARK was at the forefront of providing this technology to producers when it first introduced in the 1990s. I have successfully used biotech feeds in my farm since it became available. I believe the rapid adoption of these products reflects an understanding of their value and real-world benefits.    Farmers also realize that crops they grow today benefiting from biotechnology are just as safe and healthy as the crops grown by their parents and their grandparents. This is important to farmers and is providing our customers with safe quality products as our number-one priority.    Biotechnology provides substantial benefits to producers, to the environment, and to consumers. To reverse course now would wreak havoc amongst America's agricultural industry. Make no mistake, that is what a patchwork of biotech labeling laws would represent, an unworkable step backward. A growing concern among farmers and co-op managers is this patchwork would not stop at the State level, but perhaps could extend down to the individual cities, counties and even townships. Food and agricultural companies, including cooperatives like GROWMARK, would have no choice but to comply with hundreds, perhaps even thousands, of varying, if not directly conflicting, labeling laws. A near impossible task for us.    The Safe and Accurate Food Labeling Act introduced to this Congress by Representatives Mike Pompeo and G.K. Butterfield would ensure that the labeling of biotech ingredients of food products is based on consistent standards using sound science. It would allow those who wish to label their products as GMO free to do so by utilizing a verified process offered through the USDA, very similar to that of the Department's successful certified organic program.    I encourage members of this committee and Congress to support the Safe and Accurate Food Labeling Act. This bill would ensure the consumers are provided with accurate and consistent information about the food they purchase while preserving the choices available to grocery shoppers and to our Nation's farmers.    In conclusion, I strongly urge the subcommittee to support a voluntary, uniform, and national standard for labeling food products derived from biotech ingredients. The impact of not taking action would have a devastating effect on food and agricultural companies across the country, as well as farmers whose livelihoods depend on the freedom to conduct their business using the best methods available to them.    Thank you, again, for the opportunity to testify before this committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman.    Now I recognize Mr. Jaffe, 5 minutes for your summary.</t>
   </si>
   <si>
+    <t>Jaffe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jaffe. Chairman Pitts, Ranking Member Green, I want to thank the House Committee on Energy and Commerce and the Subcommittee on Health for having today's hearing and inviting me as a witness on behalf of the Center for Science in the Public Interest.    The issues surrounding the proper role of the Federal Government in the oversight of genetically engineered crops and the labeling of foods made with or without ingredients from those crops are issues of obvious public concern that Congress needs to address. It is critical that the Federal Government ensures that all GE crops are safe and that whatever information is provided to consumers about foods and ingredients made from those crops be truthful, neutral, and nonmisleading. I am here today as the director of CSPI's biotechnology project. CSPI is a nonprofit consumer organization established 44 years ago. CSPI works primarily on food safety and nutrition and publishes our nutrition action newsletter to educate consumers on issues surrounding diet and health. CSPI receives no funding from industry or the Federal Government.    CSPI has long advised consumers, journalists, and policymakers that foods and ingredients from currently grown GE crops are safe to eat. The current crops have also provided tremendous benefits to farmers and the environment in both the United States and around the world. CSPI has advocated for improvements in current Federal oversight to ensure safety to humans, animals, the environment, and agriculture.    I will limit my testimony today to the Federal Government's oversight of food and feed safety issues, which are the primarily responsibility of the FDA and directly related to this hearing. FDA ensures the safety of food under the Food, Drug, and Cosmetic Act. Under that law, FDA has established a voluntary consultation process whereby developers of GE seeds can provide FDA with safety data and their analysis of those data to show FDA that the crop is substantially equivalent to its conventional counterpart.    When FDA consultation is completed, FDA responds that the seed developer by stating in a letter that FDA has ``No further questions about the developer's determination that the GE crop is substantially equivalent to its conventional counterpart.''    CSPI believes that FDA should determine the safety of all GE food crops before foods from those crops enter our food supply. FDA should review the safety data submitted by the developer, conduct its own analysis of that data, and provide the developer and the public with its opinion on whether foods from GE crops are safe to eat by humans and animals. That would be consistent with how most other countries ensure the safety of GE crops.    H.R. 1599 goes only a small step towards what we believe is the proper role of FDA to ensure the safety of GE crops and the foods made from them. H.R. 1599 would codify the current FDA voluntary consultation process. It does not require, however, FDA to provide its opinion on each particular GE crop safety. In addition, it does not put the burden of proof on the notifier to satisfy FDA that the GE food crops or foods and ingredients made from the crops are safe before marketing the GE crop.    The recently announced amendments to H.R. 1599 does not correct those major deficiencies and does not grant FDA any new legal authority to ensure that GE food crops are safe. Instead, it amends the Plant Protection Act to state that a GE crop that has been granted nonregulated status under USDA regulations cannot be marketed in interstate commerce until the USDA has received from the developer the ``no further questions'' letter it receives from FDA. FDA would still not need to make its own independent determination that the GE food crops meet the safety standard, and the amendment does not provide FDA with the needed authority to prevent foods or ingredients from GE crops from entering the food supply until the notifier satisfies FDA of their safety.    H.R. 1599 and the amendment provides USDA's agricultural marketing service with unique legal authority to establish a certification and labeling system for food manufacturers who wish to label foods that either contain or do not contain ingredients from GE crops. CSPI supports the Federal Government's oversight of GE and non-GE labels to ensure they are truthful, neutral, and nonmisleading. There is no standard definition of what it means to be a non-GMO, no standard way to describe that claim in a neutral manner, and no way for the consumers to know if that claim is accurate.    While CSPI believes that there is no benefit to consumers from avoiding foods that contain ingredients from GE crops, CSPI understands that some consumers do want to buy such foods. The system that would be implemented at USDA if Congress passed H.R. 1599 would go a long way towards uniform labels with verifiable, nonmisleading claims.    Therefore, CSPI endorses that portion of this legislation. I thank the committee for allowing me to testify, and I am happy to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman. Right on time.    The members are voting on the floor. We still have 12 minutes. So we are going to continue the witnesses' testimony and some questions before we recess to go to the floor to vote, and then we will come back.    Mr. Giddings, you are recognized 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Giddings</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Giddings. Thank you, Mr. Chairman, Mr. Green. I very much appreciate the invitation to testify before you this morning on behalf of the Information Technology &amp; Innovation Foundation on the safety and appropriate labeling for crops and foods improved for biotechnology. ITIF is a nonpartisan research and educational think tank whose mission is to formulate and promote public policies to advance technological innovation and productivity. We focus on innovation issues. We have long been involved in the conversations about agricultural biotechnology and how best to ensure its widely shared benefits to humans and the environment are not burdened by ill-considered policies, especially those based on fear and misunderstanding.    I very much appreciate the opportunity to comment on these issues here today and thank, in particular, Mr. Pompeo for proposing this legislation, which I think is approaching perfection as a solution to some of the problems we face in this area on public policy.    The introduction of crops improved through biotechnology, often called GMOs, has been one of the greatest booms to humanity in the last 10,000 years of our history. No other innovation in agriculture has been taken up more widely or more quickly, and none other has delivered greater benefits to humans, our livestock, and companion animals and the environment. These crops have been grown over the two decades on over 4 billion acres worldwide. Last year alone, they were grown on 448 million acres by 18 million farmers in 28 countries legally, including a lot more where they were grown by farmers without government sanction where the farmers could get access to the seeds.    The farm gate value added has totaled more than $120 billion. And the environmental impacts of agriculture have been reduced, on average, by 18 percent. This has entailed a 37 percent reduction in the use of pesticides, a 22 percent increase in yields, and a 68 percent increase in farmer income.    The single most important element in the equation of credit for this avalanche of global benefits is the science-based regulatory process adopted by the United States in 1986 for which you and your colleagues and your predecessors bear an enormous amount of credit.    The bipartisan endorsement supporting the science-based approach to regulation that has been in place in the United States for the past four decades has been absolutely essential and made it possible for this technology to be developed, adapted, and disseminated. The intention of H.R. 1599 to extend this legacy of bipartisan support for science-based regulation is important as special interests seek to undermined its credibility and authority with false claims and ill-considered policy proposals at every level, particularly at the State level. Congress clearly has authority to address these issues and should formally preempt state level actions as the Constitution directs in Article 1, Section 8, Clause 3, the interstate commerce clause.    I am less enthusiastic and, indeed, would advise against one provision before you in this legislation, which would change the nature of the FDA safety review process for bioengineered foods by making it mandatory. It widely acknowledged that the biotech-derived foods on the market today are safe, that they have all gone through this review process, the review process has worked and is working well, does not need any fixing; there are no safety issues outstanding, which it fails to address.    I know that there are those who favor making this process mandatory, but if Congress were to take that step, it would, for the first time, step away from the science-based regulation that has served us so well for decades. I say this because the term ``GMO'' is an artificial construct, and it does not represent a meaningful class of items deserving of special, much less discriminatory, regulatory status or scrutiny. That category further bears no meaningful relation to hazard or risk. GM is a process. It is not a product. Provisions with FDA regulations on labeling already in place mandate consumer information about the contents of the foods that they buy and consume.    So I would enter a plea that as you consider these issues, please think carefully about what will help accomplish your objectives and what will not. Making it clear to the States that labeling is a Federal responsibility, that is something that would be helpful. Actions that some will construe and represent to be an acknowledgement that there are safety issues or concerns where, in fact, there are none, would not be helpful. Thank you for the opportunity to speak to you this morning, and I am happy to answer any questions.</t>
   </si>
   <si>
@@ -301,6 +367,9 @@
     <t xml:space="preserve">    Mr. Pitts. The time of the recess having expired, we will continue with the questions.    And, at this point, the chair recognizes the gentleman from Kentucky, Mr. Whitfield, 5 minutes for questions.</t>
   </si>
   <si>
+    <t>Whitfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Chairman.    And I want to thank all of the witnesses for joining us today on this very important subject. As a matter of fact, I walked out of this hearing to go back to my office before I went to the floor for a vote, and there were a group of seven people in there who wanted to talk about this bill. So somebody is really organized today, Mr. Shimkus. But it is an important issue.    And, Mr. Jaffe, I would like to just ask for your comments. FDA has made it very clear that their current consultation process is rigorous, involves a number of experts well versed in these methods, and is entirely, to use their words, entirely sufficient for purposes of reviewing the safety of these products.    And so, if the FDA is perfectly comfortable in the process, feels that it adequately protects the public and food safety, why are you arguing for new legal authority that FDA does not believe it even needs?</t>
   </si>
   <si>
@@ -400,6 +469,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman.    And to my friend, Ranking Member Pallone, my question is going to follow up on yours in two points.    So one is, that the country feeds the world. United States, we feed the world. And I would argue, being from Illinois--and I am glad John is here--Illinois and the Midwest is a predominant producer of base commodity products that go around the world.    So, John, these two questions are for you. First of all, the last couple years, we had a pretty big drought. Had we had that drought a decade ago or two decades ago, what would have been the result? And what made our ability to withstand the drought survivable?</t>
   </si>
   <si>
@@ -478,6 +553,12 @@
     <t>400062</t>
   </si>
   <si>
+    <t>Capps</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you, Mr. Chairman, for holding this hearing.    And I thank each of our witnesses for your testimony.    I firmly believe that consumers have the right to make informed decisions about the food they eat. I hope this is a point on which we all can agree.    And I think there is general agreement that a good Federal standard for genetically engineered, or GE, labeling is preferable to a confusing patchwork of State labeling rules. But there is disagreement about exactly what that standard should be. And I am not convinced that H.R. 1599 will assure consumers that they have the reliable and clear information that they are looking for.    Dr. Jaffe, do you think this bill meets consumer demands for clear, consistent labeling of GE products?</t>
   </si>
   <si>
@@ -538,6 +619,12 @@
     <t>412427</t>
   </si>
   <si>
+    <t>Bucshon</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Bucshon. Thank you very much, Mr. Chairman.    I just want to say I support the consumer's right to know what is in their food products, but I also think it should be based on science. And I support Congressman Pompeo's legislation.    I know it has been said, but I want to reiterate for the record some quotes from organizations around the world, really, talking about GMO.    American Medical Association: ``Our AMA recognizes that there is no evidence that unique hazards exist either in the use of GE techniques or in the movement of genes between unrelated organisms. Bioengineering foods have been consumed for close to 20 years, and, during that time, no overt consequences on human health have been reported or substantiated in peer-reviewed literature.''    Natural Academies of Science: ``Genetic engineering is one of the newer technologies available to produce desired traits in plants and animals used for food, but it poses no health risks that cannot also arise from conventional breeding and other methods used to create new foods.'' They go on to say, ``An analysis of the U.S. experience with genetically engineered crops shows that they offer substantial net environmental and economic benefits compared to conventional crops. Generally, GE crops have fewer adverse effects on the environment than on non-GE crops produced conventionally.''    And, finally, the World Health Organization: ``GM foods currently available on the international market have passed risk assessments and are not likely to present risks for human health. In addition, no effects on human health have been shown as a result of the consumption of such foods by the general population in the countries where they have been approved.''    So, that said, as a medical doctor, I was charged with advising patients on therapy that works, therapy that doesn't work. And, of course, based on the Internet and other sources, there are all kinds of proposed therapies for cancer and heart disease out there that have been unsubstantiated that patients frequently ask me about.    And so I guess my question to everyone on the panel is, should people like elected officials or other people who are in charge of informing the public, should we buy into what I see is a movement without really substantiated reason to be there in the first place? Or, for example, me, buy into a treatment that is not proven to be effective? Or should I lead and should I say to my patients or should I say to the general public what the facts are and not buy into unsubstantiated claims?    And what I see honestly is really, for the most part, a political and economic movement--political because of misinformation and economic because of companies that want their product to be labeled non-GMO so that they can compete with everybody else.    So I will start at the end, and just comment on what your thoughts are. Should we buy in, or should we inform the public and stand up to what is clearly misinformation?</t>
   </si>
   <si>
@@ -634,6 +721,12 @@
     <t>412563</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    This is a great hearing. I appreciate the witnesses' comments. And, certainly, I am a big supporter of Mr. Pompeo's bill.    As we move into an area that I like to equate to hydrofracking, the scare tactics, the disinformation, the misinformation, the outright lies surrounding the safety of hydrofracking took on a life of their own for several years, to the point New York State banned hydrofracking. And, lo and behold, the EPA finally came out with an exhaustive study that said without any doubt that hydrofracking, when done properly, is absolutely safe and does not impose any risks on groundwater contamination. But for 2 years, people were on the Internet showing tap water coming out of the taps and putting a lighter to it and starting it on fire and scaring the bejesus out of the public, that, oh, my God, if that is hydrofracking, you are going to be drinking contaminated water.    I compare that very similar to where we are today on this GMO debate. The opponents of it, like hydrofracking, have gotten out in front and basically said GMO equals bad, GMO equals dangerous. And so now people are at a point where, if they put anything to do with GMOs on their label, the average consumer, from misinformation and disinformation, is going to say, I don't want to buy that. Well, that is a tragedy for America, for the American consumer, and it just is, unfortunately, the facts of the life we live in.    Also, the other issue that I know is problematic is, if every state creates their own labeling standards, if every town and every county, if all 62 counties in New York create their own labeling standard, the types of costs that are going to be passed on to consumers would be mind-boggling.    We have a Cheerios plant just outside of my district, and if every box of Cheerios, you had to create a thousand different boxes because every village, every city, every town, every county, every state in America decided to willy-nilly pass their own laws, you wouldn't be able to afford a box of Cheerios.    And, frankly, as the supply and demand chain goes for a very small state with very few consumers, they would just stop selling in that state. Vermont can go do what they want, but somebody might say, based on the cost of serving a very small market, I guess we will just no longer sell our product into that market. That is what consumers seriously need to be worried about.    So I am just very happy that the FDA would be--we are asking them to do a study on the safety, like we asked the EPA to do a study on the safety of hydrofracking and it came back safe. And I am confident the same study will show that to be the case for GMOs.    And I do think that Congress does have a role to play if there is labeling. We need to be preemptive and cut out the states from willy-nilly, putting out a thousand different sets of regulations. I am a small-government, local-decision-making guy, but this is a place for the Federal Government to step forward.    But an observation and question, perhaps, to Mr. Blasgen: Cornell University, just, again, outside my district, did a study, and the study was: What would be the cost--now, this is certainly an estimate, but they did an actual data-based study--to the average consumer in America were these willy-nilly labeling by state, by town, by county, by village to go forward? And it was $500 at the end. They concluded the average family would be paying an additional $500 a year just for these labels on boxes. And $500 is a significant dent for getting nothing more than the cost on the producers.    And I just wondered, Mr. Blasgen, have you seen similar studies? Does that make sense? Let's be honest with the consumers: do you want to pay an extra $500 a year?</t>
   </si>
   <si>
@@ -655,6 +748,12 @@
     <t>412315</t>
   </si>
   <si>
+    <t>Schrader</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you, Mr. Chairman.    I guess questions for Mr. Jaffe and Mr. Reifsteck: What is the purpose of FDA labeling? What is the statutory requirement? Why do we label food?    Mr. Jaffe?</t>
   </si>
   <si>
@@ -676,6 +775,12 @@
     <t>412485</t>
   </si>
   <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. I will try to be quick.    Mr. Jaffe, you indicated in one of the answers earlier that you didn't--and correct me if I got it wrong--that you didn't see any concerns today about allergens, that none of the foods that are out there now that have been genetically engineered have allergen problems, but you were concerned about the future.    Can you get me information on that, if I got that information correct from you originally? Was that correct, what I thought I heard you say?</t>
   </si>
   <si>
@@ -697,6 +802,9 @@
     <t>412212</t>
   </si>
   <si>
+    <t>Sarbanes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sarbanes. Thank you, Mr. Chairman. I will be shorter than 5 minutes.    I want to thank the panel.    Mr. Jaffe, long time, no see. Thank you for your testimony.    I confess to you, my head is kind of exploding on this, just trying to balance all of these different concerns. So I am still absorbing a lot of the information and perspective related to it.    I take it, Mr. Jaffe, that even though there is a system now whereby the FDA, in effect, says that they think things are OK because they issued this letter that says they don't have any further questions, that you don't view that as an affirmative enough judgment being rendered by the FDA with respect to the safety of the item that is subject to the letter.    Can you just elaborate a little bit more on why you feel that a more proactive, affirmative statement or standard or judgment or opinion on the part of the FDA would make sense in the context of this proposal?</t>
   </si>
   <si>
@@ -722,6 +830,12 @@
   </si>
   <si>
     <t>412539</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Brooks. Mr. Chairman, I heard yesterday from Beck's Hybrids, a family-owned pioneer in the biotech world in seed production, who is in strong support of this bill.    And I yield the remainder of my time to the gentleman from Kansas, Mr. Pompeo.</t>
@@ -1115,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,7 +1237,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,5765 +1259,6756 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
       <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
       <c r="H65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
       <c r="H67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
       <c r="H71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
       <c r="H73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G74" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
       <c r="H75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
       <c r="H77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G79" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G81" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
       <c r="H82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G83" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
       <c r="H85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G86" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
       <c r="H87" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G90" t="s">
+        <v>117</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G92" t="s">
+        <v>117</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G94" t="s">
+        <v>117</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G95" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G96" t="s">
+        <v>117</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G97" t="s">
+        <v>60</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G98" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G99" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G100" t="s">
+        <v>117</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G102" t="s">
+        <v>49</v>
+      </c>
       <c r="H102" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G103" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G104" t="s">
+        <v>49</v>
+      </c>
       <c r="H104" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G105" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G106" t="s">
+        <v>49</v>
+      </c>
       <c r="H106" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G107" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G108" t="s">
+        <v>49</v>
+      </c>
       <c r="H108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G109" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G110" t="s">
+        <v>49</v>
+      </c>
       <c r="H110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G111" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G112" t="s">
+        <v>49</v>
+      </c>
       <c r="H112" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G114" t="s">
+        <v>49</v>
+      </c>
       <c r="H114" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G115" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G116" t="s">
+        <v>49</v>
+      </c>
       <c r="H116" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
       <c r="H118" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G120" t="s">
+        <v>60</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>127</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G122" t="s">
+        <v>151</v>
+      </c>
       <c r="H122" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G123" t="s">
+        <v>60</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
       <c r="H124" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G126" t="s">
+        <v>151</v>
+      </c>
       <c r="H126" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G127" t="s">
+        <v>60</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>127</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G128" t="s">
+        <v>151</v>
+      </c>
       <c r="H128" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G129" t="s">
+        <v>60</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>127</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G130" t="s">
+        <v>151</v>
+      </c>
       <c r="H130" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G131" t="s">
+        <v>60</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>127</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G132" t="s">
+        <v>151</v>
+      </c>
       <c r="H132" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G133" t="s">
+        <v>60</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>127</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G134" t="s">
+        <v>151</v>
+      </c>
       <c r="H134" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G135" t="s">
+        <v>60</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>127</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
       <c r="H136" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G137" t="s">
+        <v>60</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>127</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s">
+        <v>151</v>
+      </c>
       <c r="H138" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G139" t="s">
+        <v>60</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>127</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G140" t="s">
+        <v>151</v>
+      </c>
       <c r="H140" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G141" t="s">
+        <v>60</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>127</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G142" t="s">
+        <v>151</v>
+      </c>
       <c r="H142" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G143" t="s">
+        <v>60</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>127</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G144" t="s">
+        <v>151</v>
+      </c>
       <c r="H144" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G145" t="s">
+        <v>60</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>127</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G146" t="s">
+        <v>151</v>
+      </c>
       <c r="H146" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>153</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G148" t="s">
+        <v>179</v>
+      </c>
       <c r="H148" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G149" t="s">
+        <v>63</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>153</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G150" t="s">
+        <v>179</v>
+      </c>
       <c r="H150" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G151" t="s">
+        <v>63</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>153</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G152" t="s">
+        <v>179</v>
+      </c>
       <c r="H152" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G153" t="s">
+        <v>63</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>153</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G154" t="s">
+        <v>179</v>
+      </c>
       <c r="H154" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G155" t="s">
+        <v>63</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>153</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G156" t="s">
+        <v>179</v>
+      </c>
       <c r="H156" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G157" t="s">
+        <v>63</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>153</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G158" t="s">
+        <v>179</v>
+      </c>
       <c r="H158" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G159" t="s">
+        <v>63</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>153</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G160" t="s">
+        <v>179</v>
+      </c>
       <c r="H160" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G161" t="s">
+        <v>63</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>153</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G162" t="s">
+        <v>179</v>
+      </c>
       <c r="H162" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G163" t="s">
+        <v>57</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>153</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G164" t="s">
+        <v>179</v>
+      </c>
       <c r="H164" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G165" t="s">
+        <v>57</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>153</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G166" t="s">
+        <v>179</v>
+      </c>
       <c r="H166" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>173</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G168" t="s">
+        <v>201</v>
+      </c>
       <c r="H168" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G169" t="s">
+        <v>54</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G170" t="s">
+        <v>57</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>173</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G171" t="s">
+        <v>201</v>
+      </c>
       <c r="H171" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G172" t="s">
+        <v>57</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>173</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G173" t="s">
+        <v>201</v>
+      </c>
       <c r="H173" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G174" t="s">
+        <v>57</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>173</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G175" t="s">
+        <v>201</v>
+      </c>
       <c r="H175" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I175" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G177" t="s">
+        <v>63</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G178" t="s">
+        <v>66</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>173</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G179" t="s">
+        <v>201</v>
+      </c>
       <c r="H179" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G180" t="s">
+        <v>66</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>173</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G181" t="s">
+        <v>201</v>
+      </c>
       <c r="H181" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G182" t="s">
+        <v>66</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>173</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G183" t="s">
+        <v>201</v>
+      </c>
       <c r="H183" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I183" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G185" t="s">
+        <v>27</v>
+      </c>
       <c r="H185" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G187" t="s">
+        <v>27</v>
+      </c>
       <c r="H187" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I187" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
       <c r="H189" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I189" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G190" t="s">
+        <v>54</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G191" t="s">
+        <v>27</v>
+      </c>
       <c r="H191" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I191" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G192" t="s">
+        <v>54</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G193" t="s">
+        <v>27</v>
+      </c>
       <c r="H193" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I193" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G194" t="s">
+        <v>54</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G195" t="s">
+        <v>27</v>
+      </c>
       <c r="H195" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I195" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G196" t="s">
+        <v>66</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G197" t="s">
+        <v>27</v>
+      </c>
       <c r="H197" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G198" t="s">
+        <v>66</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G199" t="s">
+        <v>27</v>
+      </c>
       <c r="H199" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I199" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>205</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="G201" t="s">
+        <v>235</v>
+      </c>
       <c r="H201" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="I201" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G202" t="s">
+        <v>54</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>205</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="G203" t="s">
+        <v>235</v>
+      </c>
       <c r="H203" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="I203" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G204" t="s">
+        <v>54</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>205</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="G205" t="s">
+        <v>235</v>
+      </c>
       <c r="H205" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="I205" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
       <c r="H206" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>212</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G207" t="s">
+        <v>244</v>
+      </c>
       <c r="H207" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>245</v>
+      </c>
+      <c r="I207" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G208" t="s">
+        <v>63</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>212</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G209" t="s">
+        <v>244</v>
+      </c>
       <c r="H209" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>245</v>
+      </c>
+      <c r="I209" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G210" t="s">
+        <v>60</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>212</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G211" t="s">
+        <v>244</v>
+      </c>
       <c r="H211" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>245</v>
+      </c>
+      <c r="I211" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
       <c r="H212" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>219</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G213" t="s">
+        <v>253</v>
+      </c>
       <c r="H213" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I213" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G214" t="s">
+        <v>63</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>219</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G215" t="s">
+        <v>253</v>
+      </c>
       <c r="H215" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I215" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G216" t="s">
+        <v>63</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>219</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>252</v>
+      </c>
+      <c r="G217" t="s">
+        <v>253</v>
+      </c>
       <c r="H217" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I217" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
       <c r="H218" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>226</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>261</v>
+      </c>
+      <c r="G219" t="s">
+        <v>262</v>
+      </c>
       <c r="H219" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I219" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G220" t="s">
+        <v>63</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>226</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>261</v>
+      </c>
+      <c r="G221" t="s">
+        <v>262</v>
+      </c>
       <c r="H221" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I221" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G222" t="s">
+        <v>57</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>226</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>261</v>
+      </c>
+      <c r="G223" t="s">
+        <v>262</v>
+      </c>
       <c r="H223" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I223" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
-      </c>
-      <c r="G224" t="s"/>
-      <c r="H224" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G224" t="s">
+        <v>57</v>
+      </c>
+      <c r="H224" t="s"/>
+      <c r="I224" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>226</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>261</v>
+      </c>
+      <c r="G225" t="s">
+        <v>262</v>
+      </c>
       <c r="H225" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I225" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
       <c r="H226" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>235</v>
-      </c>
-      <c r="G227" t="s"/>
+        <v>271</v>
+      </c>
+      <c r="G227" t="s">
+        <v>272</v>
+      </c>
       <c r="H227" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>273</v>
+      </c>
+      <c r="I227" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G228" t="s">
+        <v>35</v>
+      </c>
       <c r="H228" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I228" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G229" t="s">
+        <v>57</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G230" t="s">
+        <v>35</v>
+      </c>
       <c r="H230" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I230" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G231" t="s">
+        <v>57</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G232" t="s">
+        <v>35</v>
+      </c>
       <c r="H232" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I232" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G233" t="s">
+        <v>57</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G234" t="s">
+        <v>35</v>
+      </c>
       <c r="H234" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I234" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G235" t="s">
+        <v>57</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>23</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G236" t="s">
+        <v>35</v>
+      </c>
       <c r="H236" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I236" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
-      </c>
-      <c r="G237" t="s"/>
-      <c r="H237" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G237" t="s">
+        <v>63</v>
+      </c>
+      <c r="H237" t="s"/>
+      <c r="I237" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G238" t="s">
+        <v>35</v>
+      </c>
       <c r="H238" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I238" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
-      </c>
-      <c r="G239" t="s"/>
-      <c r="H239" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="G239" t="s">
+        <v>57</v>
+      </c>
+      <c r="H239" t="s"/>
+      <c r="I239" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>23</v>
-      </c>
-      <c r="G240" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G240" t="s">
+        <v>35</v>
+      </c>
       <c r="H240" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I240" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
-      </c>
-      <c r="G241" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
       <c r="H241" t="s">
-        <v>250</v>
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
